--- a/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_damper_spring_vel.xlsx
+++ b/mbs-EP-v.1.0.6 - eq mot/Excel Files/flyball_governor/flyball_governor_damper_spring_vel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.6 - eq mot\Excel Files\flyball_governor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52903BD-CF61-4314-99C3-9390F33EDA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D14ACD-A403-4905-8579-18317F470904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="16200" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1320,9 +1320,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,6 +1350,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2044,7 +2053,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,44 +2072,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="123"/>
-      <c r="J2" s="120" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="J2" s="123" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="98"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="100"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="99" t="s">
+      <c r="K3" s="103"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="N3" s="100"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="44" t="s">
         <v>154</v>
       </c>
@@ -2109,12 +2118,12 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="98"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="50">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>22</v>
@@ -2125,14 +2134,14 @@
       <c r="K4" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="125"/>
+      <c r="L4" s="128"/>
       <c r="M4" s="43" t="s">
         <v>125</v>
       </c>
       <c r="N4" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="93"/>
+      <c r="O4" s="96"/>
       <c r="P4" s="44" t="s">
         <v>155</v>
       </c>
@@ -2141,10 +2150,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="98"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="50" t="s">
         <v>79</v>
       </c>
@@ -2157,14 +2166,14 @@
       <c r="K5" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="125"/>
+      <c r="L5" s="128"/>
       <c r="M5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="93"/>
+      <c r="O5" s="96"/>
       <c r="P5" s="44" t="s">
         <v>156</v>
       </c>
@@ -2173,10 +2182,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="101"/>
       <c r="D6" s="50" t="s">
         <v>3</v>
       </c>
@@ -2189,14 +2198,14 @@
       <c r="K6" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="125"/>
+      <c r="L6" s="128"/>
       <c r="M6" s="44" t="s">
         <v>127</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="O6" s="93"/>
+      <c r="O6" s="96"/>
       <c r="P6" s="44" t="s">
         <v>160</v>
       </c>
@@ -2205,12 +2214,12 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="98"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="50">
-        <v>-9806.5</v>
+        <v>-9806.65</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>103</v>
@@ -2221,14 +2230,14 @@
       <c r="K7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="125"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="93"/>
+      <c r="O7" s="96"/>
       <c r="P7" s="44" t="s">
         <v>159</v>
       </c>
@@ -2237,10 +2246,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="98"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="50" t="s">
         <v>123</v>
       </c>
@@ -2253,14 +2262,14 @@
       <c r="K8" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="125"/>
+      <c r="L8" s="128"/>
       <c r="M8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="93"/>
+      <c r="O8" s="96"/>
       <c r="P8" s="44" t="s">
         <v>163</v>
       </c>
@@ -2269,10 +2278,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="50"/>
       <c r="E9" s="51" t="s">
         <v>117</v>
@@ -2283,14 +2292,14 @@
       <c r="K9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L9" s="125"/>
+      <c r="L9" s="128"/>
       <c r="M9" s="44" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="93"/>
+      <c r="O9" s="96"/>
       <c r="P9" s="44" t="s">
         <v>164</v>
       </c>
@@ -2305,14 +2314,14 @@
       <c r="K10" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="125"/>
+      <c r="L10" s="128"/>
       <c r="M10" s="44" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="93"/>
+      <c r="O10" s="96"/>
       <c r="P10" s="49" t="s">
         <v>165</v>
       </c>
@@ -2323,14 +2332,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="53"/>
       <c r="K11" s="54"/>
-      <c r="L11" s="125"/>
+      <c r="L11" s="128"/>
       <c r="M11" s="44" t="s">
         <v>129</v>
       </c>
       <c r="N11" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="O11" s="93"/>
+      <c r="O11" s="96"/>
       <c r="P11" s="49" t="s">
         <v>166</v>
       </c>
@@ -2339,25 +2348,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
       <c r="J12" s="55"/>
       <c r="K12" s="56"/>
-      <c r="L12" s="125"/>
+      <c r="L12" s="128"/>
       <c r="M12" s="44" t="s">
         <v>130</v>
       </c>
       <c r="N12" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="93"/>
+      <c r="O12" s="96"/>
       <c r="P12" s="44" t="s">
         <v>171</v>
       </c>
@@ -2366,29 +2375,29 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="96"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E13" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
       <c r="J13" s="55"/>
       <c r="K13" s="56"/>
-      <c r="L13" s="125"/>
+      <c r="L13" s="128"/>
       <c r="M13" s="44" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="93"/>
+      <c r="O13" s="96"/>
       <c r="P13" s="49" t="s">
         <v>172</v>
       </c>
@@ -2397,29 +2406,29 @@
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E14" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
       <c r="J14" s="57"/>
       <c r="K14" s="58"/>
-      <c r="L14" s="125"/>
+      <c r="L14" s="128"/>
       <c r="M14" s="44" t="s">
         <v>131</v>
       </c>
       <c r="N14" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="O14" s="93"/>
+      <c r="O14" s="96"/>
       <c r="P14" s="49" t="s">
         <v>173</v>
       </c>
@@ -2428,31 +2437,31 @@
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="J15" s="99" t="s">
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="J15" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="K15" s="100"/>
-      <c r="L15" s="125"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="128"/>
       <c r="M15" s="44" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="93"/>
+      <c r="O15" s="96"/>
       <c r="P15" s="49" t="s">
         <v>174</v>
       </c>
@@ -2461,31 +2470,31 @@
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="96"/>
+      <c r="C16" s="99"/>
       <c r="D16" s="66"/>
       <c r="E16" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
       <c r="J16" s="44" t="s">
         <v>90</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="L16" s="125"/>
+      <c r="L16" s="128"/>
       <c r="M16" s="44" t="s">
         <v>132</v>
       </c>
       <c r="N16" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="O16" s="93"/>
+      <c r="O16" s="96"/>
       <c r="P16" s="44" t="s">
         <v>179</v>
       </c>
@@ -2494,29 +2503,29 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="99" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="96"/>
+      <c r="C17" s="99"/>
       <c r="D17" s="66"/>
       <c r="E17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
       <c r="J17" s="44" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="125"/>
-      <c r="M17" s="99" t="s">
+      <c r="L17" s="128"/>
+      <c r="M17" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="N17" s="100"/>
-      <c r="O17" s="93"/>
+      <c r="N17" s="103"/>
+      <c r="O17" s="96"/>
       <c r="P17" s="49" t="s">
         <v>180</v>
       </c>
@@ -2525,33 +2534,33 @@
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="66" t="s">
         <v>232</v>
       </c>
       <c r="E18" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
       <c r="J18" s="44" t="s">
         <v>91</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="L18" s="125"/>
+      <c r="L18" s="128"/>
       <c r="M18" s="52" t="s">
         <v>153</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="O18" s="93"/>
+      <c r="O18" s="96"/>
       <c r="P18" s="49" t="s">
         <v>181</v>
       </c>
@@ -2560,31 +2569,31 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="66"/>
       <c r="E19" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="44" t="s">
         <v>92</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="125"/>
+      <c r="L19" s="128"/>
       <c r="M19" s="45" t="s">
         <v>145</v>
       </c>
       <c r="N19" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="O19" s="93"/>
+      <c r="O19" s="96"/>
       <c r="P19" s="49" t="s">
         <v>182</v>
       </c>
@@ -2593,33 +2602,33 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="85"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="47" t="s">
         <v>232</v>
       </c>
       <c r="E20" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
       <c r="J20" s="44" t="s">
         <v>98</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="L20" s="125"/>
+      <c r="L20" s="128"/>
       <c r="M20" s="45" t="s">
         <v>146</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="93"/>
+      <c r="O20" s="96"/>
       <c r="P20" s="44" t="s">
         <v>187</v>
       </c>
@@ -2628,31 +2637,31 @@
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="96"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="48"/>
       <c r="E21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
       <c r="J21" s="44" t="s">
         <v>93</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="125"/>
+      <c r="L21" s="128"/>
       <c r="M21" s="45" t="s">
         <v>147</v>
       </c>
       <c r="N21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="O21" s="93"/>
+      <c r="O21" s="96"/>
       <c r="P21" s="49" t="s">
         <v>188</v>
       </c>
@@ -2661,35 +2670,35 @@
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="103"/>
+      <c r="C22" s="106"/>
       <c r="D22" s="66">
-        <v>3</v>
-      </c>
-      <c r="E22" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
       <c r="J22" s="31" t="s">
         <v>104</v>
       </c>
       <c r="K22" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="126"/>
+      <c r="L22" s="129"/>
       <c r="M22" s="45" t="s">
         <v>148</v>
       </c>
       <c r="N22" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="O22" s="93"/>
+      <c r="O22" s="96"/>
       <c r="P22" s="49" t="s">
         <v>189</v>
       </c>
@@ -2698,21 +2707,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
-      <c r="C23" s="105"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="66">
-        <v>4</v>
-      </c>
-      <c r="E23" s="109"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="93"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="112"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="96"/>
       <c r="P23" s="49" t="s">
         <v>190</v>
       </c>
@@ -2721,19 +2730,21 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="93"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="66">
+        <v>3</v>
+      </c>
+      <c r="E24" s="112"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="96"/>
       <c r="P24" s="31" t="s">
         <v>196</v>
       </c>
@@ -2742,19 +2753,21 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="93"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="66">
+        <v>4</v>
+      </c>
+      <c r="E25" s="112"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="96"/>
       <c r="P25" s="31" t="s">
         <v>200</v>
       </c>
@@ -2763,19 +2776,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
-      <c r="C26" s="105"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="66"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="116"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="93"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="96"/>
       <c r="P26" s="31" t="s">
         <v>201</v>
       </c>
@@ -2784,19 +2797,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="66"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="116"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="93"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="96"/>
       <c r="P27" s="31" t="s">
         <v>202</v>
       </c>
@@ -2805,19 +2818,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
+      <c r="B28" s="107"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="66"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="116"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="93"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="96"/>
       <c r="P28" s="31" t="s">
         <v>204</v>
       </c>
@@ -2826,19 +2839,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="66"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="93"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="122"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="96"/>
       <c r="P29" s="31" t="s">
         <v>203</v>
       </c>
@@ -2847,12 +2860,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="86"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="93"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="96"/>
       <c r="P30" s="31" t="s">
         <v>205</v>
       </c>
@@ -2861,12 +2874,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="86"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="93"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="96"/>
       <c r="P31" s="31" t="s">
         <v>206</v>
       </c>
@@ -2875,12 +2888,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="86"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="93"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="96"/>
       <c r="P32" s="31" t="s">
         <v>207</v>
       </c>
@@ -2889,12 +2902,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="86"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="93"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="96"/>
       <c r="P33" s="31" t="s">
         <v>208</v>
       </c>
@@ -2903,12 +2916,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="86"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="93"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="96"/>
       <c r="P34" s="31" t="s">
         <v>209</v>
       </c>
@@ -2917,12 +2930,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="86"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="93"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="96"/>
       <c r="P35" s="31" t="s">
         <v>210</v>
       </c>
@@ -2931,12 +2944,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="86"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="93"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="96"/>
       <c r="P36" s="31" t="s">
         <v>219</v>
       </c>
@@ -2945,12 +2958,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="86"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="93"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="91"/>
+      <c r="O37" s="96"/>
       <c r="P37" s="31" t="s">
         <v>220</v>
       </c>
@@ -2959,12 +2972,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="93"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="96"/>
       <c r="P38" s="31" t="s">
         <v>221</v>
       </c>
@@ -3021,10 +3034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK197"/>
+  <dimension ref="A1:AQ197"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,121 +3055,121 @@
     <col min="20" max="37" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="96" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96" t="s">
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96" t="s">
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96" t="s">
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96" t="s">
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
-      <c r="X1" s="96"/>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="129" t="s">
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="99"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
+      <c r="AK1" s="99"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129" t="s">
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="96" t="s">
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96" t="s">
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="130" t="s">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="S2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="129" t="s">
+      <c r="S2" s="131" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="96" t="s">
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="94" t="s">
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="96" t="s">
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96" t="s">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96" t="s">
+      <c r="AG2" s="99"/>
+      <c r="AH2" s="99"/>
+      <c r="AI2" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="99"/>
+      <c r="AK2" s="99"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -3208,8 +3221,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="130"/>
-      <c r="S3" s="128"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="131"/>
       <c r="T3" s="16" t="s">
         <v>59</v>
       </c>
@@ -3265,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -3320,16 +3333,16 @@
       <c r="R4" s="29">
         <v>0</v>
       </c>
-      <c r="S4" s="70">
-        <v>0</v>
-      </c>
-      <c r="T4" s="70">
-        <v>0</v>
-      </c>
-      <c r="U4" s="70">
-        <v>0</v>
-      </c>
-      <c r="V4" s="70">
+      <c r="S4" s="81">
+        <v>0</v>
+      </c>
+      <c r="T4" s="69">
+        <v>0</v>
+      </c>
+      <c r="U4" s="69">
+        <v>0</v>
+      </c>
+      <c r="V4" s="69">
         <v>0</v>
       </c>
       <c r="W4" s="29">
@@ -3378,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>2</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <v>545.5</v>
+        <v>541.95000000000005</v>
       </c>
       <c r="E5" s="23">
         <v>0</v>
@@ -3434,18 +3447,19 @@
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="T5" s="16">
-        <f>1*10^5</f>
-        <v>100000</v>
+        <f>98352.9</f>
+        <v>98352.9</v>
       </c>
       <c r="U5" s="16">
-        <f>9.9988*10^4</f>
-        <v>99987.999999999985</v>
+        <f>127.6414</f>
+        <v>127.6414</v>
       </c>
       <c r="V5" s="30">
-        <v>128.01990000000001</v>
+        <f>984291</f>
+        <v>984291</v>
       </c>
       <c r="W5" s="29">
         <v>0</v>
@@ -3459,8 +3473,8 @@
       <c r="Z5" s="65">
         <v>0</v>
       </c>
-      <c r="AA5" s="80">
-        <v>6.28</v>
+      <c r="AA5" s="78">
+        <v>6.2831999999999999</v>
       </c>
       <c r="AB5" s="29">
         <v>0</v>
@@ -3493,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>3</v>
       </c>
@@ -3542,20 +3556,20 @@
       <c r="P6" s="29">
         <v>0</v>
       </c>
-      <c r="Q6" s="29">
-        <v>0</v>
-      </c>
-      <c r="R6" s="29">
+      <c r="Q6" s="85">
+        <v>0</v>
+      </c>
+      <c r="R6" s="85">
         <v>0</v>
       </c>
       <c r="S6" s="16">
-        <v>2.9</v>
-      </c>
-      <c r="T6" s="16">
+        <v>2.9049999999999998</v>
+      </c>
+      <c r="T6" s="82">
+        <v>4919.1000000000004</v>
+      </c>
+      <c r="U6" s="82">
         <v>4995.2870000000003</v>
-      </c>
-      <c r="U6" s="16">
-        <v>4919.1000000000004</v>
       </c>
       <c r="V6" s="16">
         <v>4919.1000000000004</v>
@@ -3572,8 +3586,8 @@
       <c r="Z6" s="29">
         <v>0</v>
       </c>
-      <c r="AA6" s="79">
-        <v>6.28</v>
+      <c r="AA6" s="83">
+        <v>6.2831999999999999</v>
       </c>
       <c r="AB6" s="29">
         <v>0</v>
@@ -3606,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>4</v>
       </c>
@@ -3614,10 +3628,10 @@
         <v>235</v>
       </c>
       <c r="C7" s="16">
-        <v>-838.57</v>
+        <v>-838.2</v>
       </c>
       <c r="D7" s="16">
-        <v>517.39700000000005</v>
+        <v>517.62</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
@@ -3655,74 +3669,80 @@
       <c r="P7" s="29">
         <v>0</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="Q7" s="85">
+        <v>0</v>
+      </c>
+      <c r="R7" s="85">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>6.1740000000000004</v>
+      </c>
+      <c r="T7" s="16">
+        <f>1.1971824*10^4</f>
+        <v>11971.824000000001</v>
+      </c>
+      <c r="U7" s="16">
+        <f>2.9040783*10^5</f>
+        <v>290407.83</v>
+      </c>
+      <c r="V7" s="63">
+        <f>2.904077624*10^5</f>
+        <v>290407.76240000001</v>
+      </c>
+      <c r="W7" s="29">
+        <v>0</v>
+      </c>
+      <c r="X7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="80">
+        <v>5266.5793999999996</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="83">
+        <v>6.2831999999999999</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="85">
         <v>1</v>
       </c>
-      <c r="R7" s="29">
+      <c r="AQ7" s="85">
         <v>0.54918999999999996</v>
       </c>
-      <c r="S7" s="16">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="T7" s="16">
-        <f>2.9054586*10^5</f>
-        <v>290545.86</v>
-      </c>
-      <c r="U7" s="63">
-        <f>2.9054586*10^5</f>
-        <v>290545.86</v>
-      </c>
-      <c r="V7" s="16">
-        <f>1.197535*10^4</f>
-        <v>11975.35</v>
-      </c>
-      <c r="W7" s="29">
-        <v>0</v>
-      </c>
-      <c r="X7" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="82">
-        <v>5268.9088000000002</v>
-      </c>
-      <c r="Z7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="80">
-        <v>6.28</v>
-      </c>
-      <c r="AB7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:43" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="63">
         <v>5</v>
       </c>
@@ -3730,10 +3750,10 @@
         <v>236</v>
       </c>
       <c r="C8" s="17">
-        <v>838.57280000000003</v>
+        <v>838.2</v>
       </c>
       <c r="D8" s="17">
-        <v>517.39700000000005</v>
+        <v>517.62</v>
       </c>
       <c r="E8" s="17">
         <v>0</v>
@@ -3771,73 +3791,80 @@
       <c r="P8" s="63">
         <v>0</v>
       </c>
-      <c r="Q8" s="62">
+      <c r="Q8" s="85">
+        <v>0</v>
+      </c>
+      <c r="R8" s="85">
+        <v>0</v>
+      </c>
+      <c r="S8" s="82">
+        <v>6.1740000000000004</v>
+      </c>
+      <c r="T8" s="84">
+        <f>1.1971824*10^4</f>
+        <v>11971.824000000001</v>
+      </c>
+      <c r="U8" s="84">
+        <f>2.9040783*10^5</f>
+        <v>290407.83</v>
+      </c>
+      <c r="V8" s="84">
+        <f>2.904077624*10^5</f>
+        <v>290407.76240000001</v>
+      </c>
+      <c r="W8" s="62">
+        <v>0</v>
+      </c>
+      <c r="X8" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="79">
+        <v>-5266.5793999999996</v>
+      </c>
+      <c r="Z8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="83">
+        <v>6.2831999999999999</v>
+      </c>
+      <c r="AB8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="62">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="85">
         <v>1</v>
       </c>
-      <c r="R8" s="62">
+      <c r="AQ8" s="85">
         <v>-0.54918999999999996</v>
       </c>
-      <c r="S8" s="62">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="T8" s="62">
-        <f>2.9054586*10^5</f>
-        <v>290545.86</v>
-      </c>
-      <c r="U8" s="62">
-        <f>2.9054586*10^5</f>
-        <v>290545.86</v>
-      </c>
-      <c r="V8" s="69">
-        <v>11975.35</v>
-      </c>
-      <c r="W8" s="62">
-        <v>0</v>
-      </c>
-      <c r="X8" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="81">
-        <v>-5268.9088000000002</v>
-      </c>
-      <c r="Z8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="80">
-        <v>6.28</v>
-      </c>
-      <c r="AB8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="62">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -3855,7 +3882,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3873,7 +3900,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3890,9 +3917,8 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="T12" s="68"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3908,7 +3934,7 @@
       <c r="P13" s="1"/>
       <c r="U13" s="68"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3923,7 +3949,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3941,7 +3967,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -6906,8 +6932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,16 +6953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6967,11 +6993,11 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="F2" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -7027,19 +7053,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -7064,16 +7090,16 @@
       <c r="E6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="137" t="s">
+      <c r="F6" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="137" t="s">
+      <c r="G6" s="141"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="138"/>
-      <c r="K6" s="139"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -7109,22 +7135,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -7149,21 +7175,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="131" t="s">
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131" t="s">
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7217,19 +7243,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7254,16 +7280,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="133" t="s">
+      <c r="F13" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="131" t="s">
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7405,19 +7431,19 @@
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -7442,16 +7468,16 @@
       <c r="E19" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="133" t="s">
+      <c r="F19" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="131" t="s">
+      <c r="G19" s="136"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -7475,19 +7501,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7512,16 +7538,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="133" t="s">
+      <c r="F22" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="131" t="s">
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
     </row>
     <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -7549,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="18">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="K23" s="18">
         <v>0</v>
@@ -7557,22 +7583,22 @@
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
     </row>
     <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
@@ -7590,44 +7616,44 @@
       <c r="E26" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="133" t="s">
+      <c r="F26" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="131" t="s">
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131" t="s">
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
     </row>
     <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
     </row>
     <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
@@ -7645,26 +7671,26 @@
       <c r="E30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="138"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="137" t="s">
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="131" t="s">
+      <c r="J30" s="141"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131" t="s">
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="131"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
     </row>
     <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -7699,14 +7725,14 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
       <c r="G33" s="11"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -7783,12 +7809,12 @@
       <c r="X36" s="10"/>
     </row>
     <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="132" t="s">
+      <c r="A37" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -7854,15 +7880,15 @@
       <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="134" t="s">
+      <c r="A41" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="139"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="67" t="s">
@@ -7877,11 +7903,11 @@
       <c r="D42" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="131" t="s">
+      <c r="E42" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
     </row>
     <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="46"/>
@@ -8120,44 +8146,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="141"/>
+      <c r="K1" s="144"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="73" t="s">
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="72" t="s">
         <v>252</v>
       </c>
       <c r="J2" s="26" t="s">
@@ -8187,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8213,113 +8239,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="142" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="145" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="144"/>
-      <c r="AB2" s="156" t="s">
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
+      <c r="AB2" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="158"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
+      <c r="AF2" s="160"/>
+      <c r="AG2" s="161"/>
     </row>
     <row r="3" spans="1:33" s="34" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="152"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="145" t="s">
+      <c r="G3" s="155"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="146"/>
-      <c r="K3" s="147"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="150"/>
       <c r="L3" s="64" t="s">
         <v>240</v>
       </c>
       <c r="M3" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="74" t="s">
         <v>111</v>
       </c>
       <c r="Q3" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="154" t="s">
+      <c r="R3" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="S3" s="154"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="160"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="160"/>
-      <c r="AG3" s="161"/>
+      <c r="S3" s="157"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="163"/>
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163"/>
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="164"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="46" t="s">
@@ -8350,8 +8376,10 @@
       <c r="K4" s="46">
         <v>0</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="71">
+      <c r="L4" s="46">
+        <v>500</v>
+      </c>
+      <c r="M4" s="70">
         <v>800</v>
       </c>
       <c r="N4" s="40"/>
@@ -8359,12 +8387,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="160"/>
-      <c r="AD4" s="160"/>
-      <c r="AE4" s="160"/>
-      <c r="AF4" s="160"/>
-      <c r="AG4" s="161"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="164"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
@@ -8396,8 +8424,10 @@
       <c r="K5" s="46">
         <v>0</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="71">
+      <c r="L5" s="46">
+        <v>500</v>
+      </c>
+      <c r="M5" s="70">
         <v>800</v>
       </c>
       <c r="N5" s="46"/>
@@ -8406,103 +8436,103 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
-      <c r="AB5" s="159"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160"/>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="161"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="163"/>
+      <c r="AD5" s="163"/>
+      <c r="AE5" s="163"/>
+      <c r="AF5" s="163"/>
+      <c r="AG5" s="164"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="159"/>
-      <c r="AC6" s="160"/>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="160"/>
-      <c r="AF6" s="160"/>
-      <c r="AG6" s="161"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="163"/>
+      <c r="AD6" s="163"/>
+      <c r="AE6" s="163"/>
+      <c r="AF6" s="163"/>
+      <c r="AG6" s="164"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="AB7" s="159"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="160"/>
-      <c r="AF7" s="160"/>
-      <c r="AG7" s="161"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="AB7" s="162"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="163"/>
+      <c r="AF7" s="163"/>
+      <c r="AG7" s="164"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="155" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="160"/>
-      <c r="AD8" s="160"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="160"/>
-      <c r="AG8" s="161"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="164"/>
     </row>
     <row r="9" spans="1:33" s="34" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="152"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="145" t="s">
+      <c r="G9" s="155"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
       <c r="L9" s="39" t="s">
         <v>108</v>
       </c>
@@ -8518,16 +8548,16 @@
       <c r="P9" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="151" t="s">
+      <c r="Q9" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="R9" s="153"/>
-      <c r="AB9" s="159"/>
-      <c r="AC9" s="160"/>
-      <c r="AD9" s="160"/>
-      <c r="AE9" s="160"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="161"/>
+      <c r="R9" s="156"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="164"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -8559,16 +8589,16 @@
       <c r="K10" s="46">
         <v>0</v>
       </c>
-      <c r="L10" s="72">
+      <c r="L10" s="71">
         <v>40</v>
       </c>
       <c r="M10" s="25"/>
-      <c r="AB10" s="159"/>
-      <c r="AC10" s="160"/>
-      <c r="AD10" s="160"/>
-      <c r="AE10" s="160"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="161"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="164"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -8600,90 +8630,90 @@
       <c r="K11" s="46">
         <v>0</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="71">
         <v>40</v>
       </c>
-      <c r="AB11" s="159"/>
-      <c r="AC11" s="160"/>
-      <c r="AD11" s="160"/>
-      <c r="AE11" s="160"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="161"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="164"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="46"/>
-      <c r="AB12" s="159"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="161"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="164"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="143" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="AB13" s="162"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="163"/>
-      <c r="AF13" s="163"/>
-      <c r="AG13" s="164"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="AB13" s="165"/>
+      <c r="AC13" s="166"/>
+      <c r="AD13" s="166"/>
+      <c r="AE13" s="166"/>
+      <c r="AF13" s="166"/>
+      <c r="AG13" s="167"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="134"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="135"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="135"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="142" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="143"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
+      <c r="X14" s="146"/>
+      <c r="Y14" s="147"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
     </row>
     <row r="15" spans="1:33" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
@@ -8701,48 +8731,48 @@
       <c r="E15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="165" t="s">
+      <c r="F15" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="145" t="s">
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148" t="s">
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="M15" s="149"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="148" t="s">
+      <c r="M15" s="152"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="150"/>
+      <c r="P15" s="152"/>
+      <c r="Q15" s="153"/>
       <c r="R15" s="39" t="s">
         <v>71</v>
       </c>
       <c r="S15" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="T15" s="75" t="s">
+      <c r="T15" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="75" t="s">
+      <c r="U15" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="V15" s="75" t="s">
+      <c r="V15" s="74" t="s">
         <v>111</v>
       </c>
       <c r="W15" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="151" t="s">
+      <c r="X15" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="Y15" s="153"/>
+      <c r="Y15" s="156"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -8789,89 +8819,89 @@
       <c r="T17" s="37"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="143" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="141"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="142" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="145" t="s">
         <v>245</v>
       </c>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="144"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="147"/>
     </row>
     <row r="20" spans="1:20" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="165" t="s">
+      <c r="F20" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="165"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="148" t="s">
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="151" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="75" t="s">
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="74" t="s">
         <v>111</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="P20" s="151" t="s">
+      <c r="P20" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="Q20" s="153"/>
+      <c r="Q20" s="156"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
@@ -8968,21 +8998,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="F1" s="121" t="s">
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="F1" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="I1" s="121" t="s">
+      <c r="G1" s="126"/>
+      <c r="I1" s="124" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="123"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -9000,12 +9030,12 @@
       <c r="G2" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="166" t="s">
+      <c r="I2" s="169" t="s">
         <v>230</v>
       </c>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
@@ -9017,10 +9047,10 @@
       <c r="G3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
@@ -9032,10 +9062,10 @@
       <c r="G4" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
@@ -9047,10 +9077,10 @@
       <c r="G5" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
@@ -9062,10 +9092,10 @@
       <c r="G6" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="59"/>
